--- a/Database Design & Questions.xlsx
+++ b/Database Design & Questions.xlsx
@@ -1757,8 +1757,8 @@
   </sheetPr>
   <dimension ref="A2:AN931"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="117" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/Database Design & Questions.xlsx
+++ b/Database Design & Questions.xlsx
@@ -1398,6 +1398,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1424,19 +1437,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1757,8 +1757,8 @@
   </sheetPr>
   <dimension ref="A2:AN931"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="117" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2369,17 +2369,17 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="181" t="s">
+      <c r="A19" s="188" t="s">
         <v>178</v>
       </c>
-      <c r="B19" s="181"/>
-      <c r="C19" s="181"/>
-      <c r="D19" s="181"/>
-      <c r="E19" s="181"/>
-      <c r="F19" s="181"/>
-      <c r="G19" s="181"/>
-      <c r="H19" s="181"/>
-      <c r="I19" s="181"/>
+      <c r="B19" s="188"/>
+      <c r="C19" s="188"/>
+      <c r="D19" s="188"/>
+      <c r="E19" s="188"/>
+      <c r="F19" s="188"/>
+      <c r="G19" s="188"/>
+      <c r="H19" s="188"/>
+      <c r="I19" s="188"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -2695,17 +2695,17 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="181" t="s">
+      <c r="A28" s="188" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="181"/>
-      <c r="C28" s="181"/>
-      <c r="D28" s="181"/>
-      <c r="E28" s="181"/>
-      <c r="F28" s="181"/>
-      <c r="G28" s="181"/>
-      <c r="H28" s="181"/>
-      <c r="I28" s="181"/>
+      <c r="B28" s="188"/>
+      <c r="C28" s="188"/>
+      <c r="D28" s="188"/>
+      <c r="E28" s="188"/>
+      <c r="F28" s="188"/>
+      <c r="G28" s="188"/>
+      <c r="H28" s="188"/>
+      <c r="I28" s="188"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -3195,17 +3195,17 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="184" t="s">
+      <c r="A42" s="191" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="185"/>
-      <c r="C42" s="185"/>
-      <c r="D42" s="185"/>
-      <c r="E42" s="185"/>
-      <c r="F42" s="185"/>
-      <c r="G42" s="185"/>
-      <c r="H42" s="185"/>
-      <c r="I42" s="186"/>
+      <c r="B42" s="192"/>
+      <c r="C42" s="192"/>
+      <c r="D42" s="192"/>
+      <c r="E42" s="192"/>
+      <c r="F42" s="192"/>
+      <c r="G42" s="192"/>
+      <c r="H42" s="192"/>
+      <c r="I42" s="193"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -3695,17 +3695,17 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="187" t="s">
+      <c r="A56" s="194" t="s">
         <v>91</v>
       </c>
-      <c r="B56" s="187"/>
-      <c r="C56" s="187"/>
-      <c r="D56" s="187"/>
-      <c r="E56" s="187"/>
-      <c r="F56" s="187"/>
-      <c r="G56" s="187"/>
-      <c r="H56" s="187"/>
-      <c r="I56" s="187"/>
+      <c r="B56" s="194"/>
+      <c r="C56" s="194"/>
+      <c r="D56" s="194"/>
+      <c r="E56" s="194"/>
+      <c r="F56" s="194"/>
+      <c r="G56" s="194"/>
+      <c r="H56" s="194"/>
+      <c r="I56" s="194"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -3956,81 +3956,81 @@
       <c r="Y62" s="77"/>
       <c r="Z62" s="77"/>
     </row>
-    <row r="63" spans="1:26" s="197" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="191">
+    <row r="63" spans="1:26" s="187" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="181">
         <v>6</v>
       </c>
-      <c r="B63" s="191" t="s">
+      <c r="B63" s="181" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="192" t="s">
+      <c r="C63" s="182" t="s">
         <v>94</v>
       </c>
-      <c r="D63" s="193"/>
-      <c r="E63" s="194"/>
-      <c r="F63" s="195" t="s">
+      <c r="D63" s="183"/>
+      <c r="E63" s="184"/>
+      <c r="F63" s="185" t="s">
         <v>29</v>
       </c>
-      <c r="G63" s="191"/>
-      <c r="H63" s="195" t="s">
+      <c r="G63" s="181"/>
+      <c r="H63" s="185" t="s">
         <v>30</v>
       </c>
-      <c r="I63" s="191"/>
-      <c r="J63" s="196"/>
-      <c r="K63" s="196"/>
-      <c r="L63" s="196"/>
-      <c r="M63" s="196"/>
-      <c r="N63" s="196"/>
-      <c r="O63" s="196"/>
-      <c r="P63" s="196"/>
-      <c r="Q63" s="196"/>
-      <c r="R63" s="196"/>
-      <c r="S63" s="196"/>
-      <c r="T63" s="196"/>
-      <c r="U63" s="196"/>
-      <c r="V63" s="196"/>
-      <c r="W63" s="196"/>
-      <c r="X63" s="196"/>
-      <c r="Y63" s="196"/>
-      <c r="Z63" s="196"/>
-    </row>
-    <row r="64" spans="1:26" s="197" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="191">
+      <c r="I63" s="181"/>
+      <c r="J63" s="186"/>
+      <c r="K63" s="186"/>
+      <c r="L63" s="186"/>
+      <c r="M63" s="186"/>
+      <c r="N63" s="186"/>
+      <c r="O63" s="186"/>
+      <c r="P63" s="186"/>
+      <c r="Q63" s="186"/>
+      <c r="R63" s="186"/>
+      <c r="S63" s="186"/>
+      <c r="T63" s="186"/>
+      <c r="U63" s="186"/>
+      <c r="V63" s="186"/>
+      <c r="W63" s="186"/>
+      <c r="X63" s="186"/>
+      <c r="Y63" s="186"/>
+      <c r="Z63" s="186"/>
+    </row>
+    <row r="64" spans="1:26" s="187" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="181">
         <v>7</v>
       </c>
-      <c r="B64" s="191" t="s">
+      <c r="B64" s="181" t="s">
         <v>31</v>
       </c>
-      <c r="C64" s="192" t="s">
+      <c r="C64" s="182" t="s">
         <v>94</v>
       </c>
-      <c r="D64" s="193"/>
-      <c r="E64" s="194"/>
-      <c r="F64" s="195" t="s">
+      <c r="D64" s="183"/>
+      <c r="E64" s="184"/>
+      <c r="F64" s="185" t="s">
         <v>29</v>
       </c>
-      <c r="G64" s="191"/>
-      <c r="H64" s="195" t="s">
+      <c r="G64" s="181"/>
+      <c r="H64" s="185" t="s">
         <v>32</v>
       </c>
-      <c r="I64" s="191"/>
-      <c r="J64" s="196"/>
-      <c r="K64" s="196"/>
-      <c r="L64" s="196"/>
-      <c r="M64" s="196"/>
-      <c r="N64" s="196"/>
-      <c r="O64" s="196"/>
-      <c r="P64" s="196"/>
-      <c r="Q64" s="196"/>
-      <c r="R64" s="196"/>
-      <c r="S64" s="196"/>
-      <c r="T64" s="196"/>
-      <c r="U64" s="196"/>
-      <c r="V64" s="196"/>
-      <c r="W64" s="196"/>
-      <c r="X64" s="196"/>
-      <c r="Y64" s="196"/>
-      <c r="Z64" s="196"/>
+      <c r="I64" s="181"/>
+      <c r="J64" s="186"/>
+      <c r="K64" s="186"/>
+      <c r="L64" s="186"/>
+      <c r="M64" s="186"/>
+      <c r="N64" s="186"/>
+      <c r="O64" s="186"/>
+      <c r="P64" s="186"/>
+      <c r="Q64" s="186"/>
+      <c r="R64" s="186"/>
+      <c r="S64" s="186"/>
+      <c r="T64" s="186"/>
+      <c r="U64" s="186"/>
+      <c r="V64" s="186"/>
+      <c r="W64" s="186"/>
+      <c r="X64" s="186"/>
+      <c r="Y64" s="186"/>
+      <c r="Z64" s="186"/>
     </row>
     <row r="65" spans="1:26" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="80">
@@ -4239,13 +4239,13 @@
       <c r="Z70" s="1"/>
     </row>
     <row r="71" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="188" t="s">
+      <c r="A71" s="195" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="189"/>
-      <c r="C71" s="189"/>
-      <c r="D71" s="189"/>
-      <c r="E71" s="189"/>
+      <c r="B71" s="196"/>
+      <c r="C71" s="196"/>
+      <c r="D71" s="196"/>
+      <c r="E71" s="196"/>
       <c r="F71" s="50"/>
       <c r="G71" s="50"/>
       <c r="H71" s="50"/>
@@ -4945,13 +4945,13 @@
       <c r="Z88" s="77"/>
     </row>
     <row r="89" spans="1:40" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="190" t="s">
+      <c r="A89" s="197" t="s">
         <v>93</v>
       </c>
-      <c r="B89" s="189"/>
-      <c r="C89" s="189"/>
-      <c r="D89" s="189"/>
-      <c r="E89" s="189"/>
+      <c r="B89" s="196"/>
+      <c r="C89" s="196"/>
+      <c r="D89" s="196"/>
+      <c r="E89" s="196"/>
       <c r="F89" s="52"/>
       <c r="G89" s="52"/>
       <c r="H89" s="50"/>
@@ -5261,13 +5261,13 @@
       <c r="Z97" s="54"/>
     </row>
     <row r="98" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="188" t="s">
+      <c r="A98" s="195" t="s">
         <v>190</v>
       </c>
-      <c r="B98" s="189"/>
-      <c r="C98" s="189"/>
-      <c r="D98" s="189"/>
-      <c r="E98" s="189"/>
+      <c r="B98" s="196"/>
+      <c r="C98" s="196"/>
+      <c r="D98" s="196"/>
+      <c r="E98" s="196"/>
       <c r="F98" s="50"/>
       <c r="G98" s="50"/>
       <c r="H98" s="50"/>
@@ -5475,13 +5475,13 @@
       <c r="Z103" s="77"/>
     </row>
     <row r="104" spans="1:26" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="190" t="s">
+      <c r="A104" s="197" t="s">
         <v>193</v>
       </c>
-      <c r="B104" s="189"/>
-      <c r="C104" s="189"/>
-      <c r="D104" s="189"/>
-      <c r="E104" s="189"/>
+      <c r="B104" s="196"/>
+      <c r="C104" s="196"/>
+      <c r="D104" s="196"/>
+      <c r="E104" s="196"/>
       <c r="F104" s="52"/>
       <c r="G104" s="52"/>
       <c r="H104" s="50"/>
@@ -6259,13 +6259,13 @@
       <c r="AJ157" s="77"/>
     </row>
     <row r="158" spans="1:36" s="78" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A158" s="182" t="s">
+      <c r="A158" s="189" t="s">
         <v>109</v>
       </c>
-      <c r="B158" s="183"/>
-      <c r="C158" s="183"/>
-      <c r="D158" s="183"/>
-      <c r="E158" s="183"/>
+      <c r="B158" s="190"/>
+      <c r="C158" s="190"/>
+      <c r="D158" s="190"/>
+      <c r="E158" s="190"/>
       <c r="F158" s="58"/>
       <c r="G158" s="58"/>
       <c r="H158" s="57"/>
@@ -6699,13 +6699,13 @@
       <c r="AJ167" s="77"/>
     </row>
     <row r="168" spans="1:36" s="78" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A168" s="182" t="s">
+      <c r="A168" s="189" t="s">
         <v>114</v>
       </c>
-      <c r="B168" s="183"/>
-      <c r="C168" s="183"/>
-      <c r="D168" s="183"/>
-      <c r="E168" s="183"/>
+      <c r="B168" s="190"/>
+      <c r="C168" s="190"/>
+      <c r="D168" s="190"/>
+      <c r="E168" s="190"/>
       <c r="F168" s="58"/>
       <c r="G168" s="58"/>
       <c r="H168" s="57"/>
@@ -7363,13 +7363,13 @@
       <c r="AJ182" s="77"/>
     </row>
     <row r="183" spans="1:36" s="78" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A183" s="182" t="s">
+      <c r="A183" s="189" t="s">
         <v>133</v>
       </c>
-      <c r="B183" s="183"/>
-      <c r="C183" s="183"/>
-      <c r="D183" s="183"/>
-      <c r="E183" s="183"/>
+      <c r="B183" s="190"/>
+      <c r="C183" s="190"/>
+      <c r="D183" s="190"/>
+      <c r="E183" s="190"/>
       <c r="F183" s="58"/>
       <c r="G183" s="58"/>
       <c r="H183" s="57"/>
@@ -29793,7 +29793,7 @@
       <c r="Y38" s="54"/>
       <c r="Z38" s="54"/>
     </row>
-    <row r="39" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:26" ht="30" x14ac:dyDescent="0.4">
       <c r="A39" s="174">
         <v>28</v>
       </c>
@@ -57065,13 +57065,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="189" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="183"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
       <c r="F3" s="58"/>
       <c r="G3" s="58"/>
       <c r="H3" s="57"/>

--- a/Database Design & Questions.xlsx
+++ b/Database Design & Questions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="3334" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="51480" yWindow="3334" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PHẦN I Tables" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="197">
   <si>
     <t>No.</t>
   </si>
@@ -547,9 +547,6 @@
     <t>1b</t>
   </si>
   <si>
-    <t>Hiển thị tất cả các mặt hàng có giảm giá &lt;= 10%, và chi tiết danh mục, nhà cung cấp</t>
-  </si>
-  <si>
     <t>limit, sort, group, sum</t>
   </si>
   <si>
@@ -620,6 +617,12 @@
   </si>
   <si>
     <t>Enum</t>
+  </si>
+  <si>
+    <t>Hiển thị tất cả các mặt hàng có giảm giá &lt;= X% và chi tiết danh mục, nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Hiển thị tất cả các mặt hàng có giảm giá &lt;= , &gt;=, &lt;, &gt;, = X% và chi tiết danh mục, nhà cung cấp</t>
   </si>
 </sst>
 </file>
@@ -1757,7 +1760,7 @@
   </sheetPr>
   <dimension ref="A2:AN931"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="117" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScale="117" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
@@ -1961,7 +1964,7 @@
     <row r="7" spans="1:26" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="79"/>
       <c r="B7" s="80" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C7" s="81" t="s">
         <v>120</v>
@@ -2049,7 +2052,7 @@
         <v>123</v>
       </c>
       <c r="J9" s="118" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K9" s="118"/>
       <c r="L9" s="118"/>
@@ -2370,7 +2373,7 @@
     </row>
     <row r="19" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="188" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B19" s="188"/>
       <c r="C19" s="188"/>
@@ -2599,7 +2602,7 @@
     <row r="25" spans="1:26" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="79"/>
       <c r="B25" s="80" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C25" s="81" t="s">
         <v>120</v>
@@ -2997,7 +3000,7 @@
     <row r="36" spans="1:26" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="79"/>
       <c r="B36" s="80" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C36" s="81" t="s">
         <v>120</v>
@@ -3137,7 +3140,7 @@
         <v>10</v>
       </c>
       <c r="B40" s="136" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C40" s="137" t="s">
         <v>120</v>
@@ -3497,7 +3500,7 @@
     <row r="50" spans="1:26" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="79"/>
       <c r="B50" s="80" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C50" s="81" t="s">
         <v>120</v>
@@ -3637,7 +3640,7 @@
         <v>10</v>
       </c>
       <c r="B54" s="136" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C54" s="137" t="s">
         <v>120</v>
@@ -4073,7 +4076,7 @@
         <v>9</v>
       </c>
       <c r="B66" s="80" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C66" s="81" t="s">
         <v>120</v>
@@ -4366,7 +4369,7 @@
       <c r="E74" s="148"/>
       <c r="F74" s="149"/>
       <c r="G74" s="145" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H74" s="145" t="s">
         <v>35</v>
@@ -4625,10 +4628,10 @@
     <row r="81" spans="1:40" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="79"/>
       <c r="B81" s="80" t="s">
+        <v>190</v>
+      </c>
+      <c r="C81" s="81" t="s">
         <v>191</v>
-      </c>
-      <c r="C81" s="81" t="s">
-        <v>192</v>
       </c>
       <c r="D81" s="82"/>
       <c r="E81" s="81"/>
@@ -4657,7 +4660,7 @@
     <row r="82" spans="1:40" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="79"/>
       <c r="B82" s="80" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C82" s="81" t="s">
         <v>120</v>
@@ -4693,10 +4696,10 @@
         <v>9</v>
       </c>
       <c r="B83" s="145" t="s">
+        <v>193</v>
+      </c>
+      <c r="C83" s="146" t="s">
         <v>194</v>
-      </c>
-      <c r="C83" s="146" t="s">
-        <v>195</v>
       </c>
       <c r="D83" s="150">
         <v>50</v>
@@ -5167,7 +5170,7 @@
     <row r="95" spans="1:40" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="79"/>
       <c r="B95" s="80" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C95" s="81" t="s">
         <v>120</v>
@@ -5262,7 +5265,7 @@
     </row>
     <row r="98" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="195" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B98" s="196"/>
       <c r="C98" s="196"/>
@@ -5377,10 +5380,10 @@
     <row r="101" spans="1:26" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="79"/>
       <c r="B101" s="80" t="s">
+        <v>190</v>
+      </c>
+      <c r="C101" s="81" t="s">
         <v>191</v>
-      </c>
-      <c r="C101" s="81" t="s">
-        <v>192</v>
       </c>
       <c r="D101" s="82"/>
       <c r="E101" s="81"/>
@@ -5476,7 +5479,7 @@
     </row>
     <row r="104" spans="1:26" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="197" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B104" s="196"/>
       <c r="C104" s="196"/>
@@ -7645,7 +7648,7 @@
         <v>5</v>
       </c>
       <c r="B189" s="119" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C189" s="120" t="s">
         <v>120</v>
@@ -28452,10 +28455,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1010"/>
+  <dimension ref="A1:Z1011"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -28481,7 +28484,7 @@
         <v>104</v>
       </c>
       <c r="E1" s="169" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F1" s="55"/>
       <c r="G1" s="55"/>
@@ -28730,8 +28733,8 @@
       <c r="Z8" s="55"/>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="85" t="s">
-        <v>181</v>
+      <c r="A9" s="85">
+        <v>1</v>
       </c>
       <c r="B9" s="164" t="s">
         <v>53</v>
@@ -28767,10 +28770,10 @@
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="85" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B10" s="164" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="C10" s="170" t="s">
         <v>98</v>
@@ -28803,10 +28806,10 @@
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="85" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="B11" s="164" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="C11" s="170" t="s">
         <v>98</v>
@@ -28839,10 +28842,10 @@
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="85" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="164" t="s">
         <v>184</v>
-      </c>
-      <c r="B12" s="164" t="s">
-        <v>182</v>
       </c>
       <c r="C12" s="170" t="s">
         <v>98</v>
@@ -28874,11 +28877,11 @@
       <c r="Z12" s="54"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="85">
-        <v>3</v>
+      <c r="A13" s="85" t="s">
+        <v>183</v>
       </c>
       <c r="B13" s="164" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C13" s="170" t="s">
         <v>98</v>
@@ -28910,17 +28913,17 @@
       <c r="Z13" s="54"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="173">
-        <v>4</v>
-      </c>
-      <c r="B14" s="165" t="s">
-        <v>54</v>
+      <c r="A14" s="85">
+        <v>3</v>
+      </c>
+      <c r="B14" s="164" t="s">
+        <v>185</v>
       </c>
       <c r="C14" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D14" s="170" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E14" s="170"/>
       <c r="F14" s="54"/>
@@ -28947,10 +28950,10 @@
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="173">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="165" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="170" t="s">
         <v>98</v>
@@ -28983,10 +28986,10 @@
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="173">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="165" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="170" t="s">
         <v>98</v>
@@ -29018,17 +29021,17 @@
       <c r="Z16" s="54"/>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="75">
-        <v>7</v>
-      </c>
-      <c r="B17" s="166" t="s">
-        <v>57</v>
+      <c r="A17" s="173">
+        <v>6</v>
+      </c>
+      <c r="B17" s="165" t="s">
+        <v>56</v>
       </c>
       <c r="C17" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D17" s="170" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E17" s="170"/>
       <c r="F17" s="54"/>
@@ -29053,12 +29056,12 @@
       <c r="Y17" s="54"/>
       <c r="Z17" s="54"/>
     </row>
-    <row r="18" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A18" s="75" t="s">
-        <v>187</v>
+    <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="75">
+        <v>7</v>
       </c>
       <c r="B18" s="166" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="170" t="s">
         <v>98</v>
@@ -29091,10 +29094,10 @@
     </row>
     <row r="19" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A19" s="75" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B19" s="166" t="s">
-        <v>163</v>
+        <v>58</v>
       </c>
       <c r="C19" s="170" t="s">
         <v>98</v>
@@ -29126,11 +29129,11 @@
       <c r="Z19" s="54"/>
     </row>
     <row r="20" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A20" s="75">
-        <v>9</v>
-      </c>
-      <c r="B20" s="167" t="s">
-        <v>59</v>
+      <c r="A20" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" s="166" t="s">
+        <v>163</v>
       </c>
       <c r="C20" s="170" t="s">
         <v>98</v>
@@ -29163,10 +29166,10 @@
     </row>
     <row r="21" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A21" s="75">
-        <v>10</v>
-      </c>
-      <c r="B21" s="166" t="s">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="B21" s="167" t="s">
+        <v>59</v>
       </c>
       <c r="C21" s="170" t="s">
         <v>98</v>
@@ -29199,10 +29202,10 @@
     </row>
     <row r="22" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A22" s="75">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" s="166" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" s="170" t="s">
         <v>98</v>
@@ -29235,10 +29238,10 @@
     </row>
     <row r="23" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A23" s="75">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" s="166" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" s="170" t="s">
         <v>98</v>
@@ -29271,10 +29274,10 @@
     </row>
     <row r="24" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A24" s="75">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" s="166" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" s="170" t="s">
         <v>98</v>
@@ -29306,17 +29309,17 @@
       <c r="Z24" s="54"/>
     </row>
     <row r="25" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A25" s="174">
-        <v>14</v>
-      </c>
-      <c r="B25" s="168" t="s">
-        <v>64</v>
+      <c r="A25" s="75">
+        <v>13</v>
+      </c>
+      <c r="B25" s="166" t="s">
+        <v>63</v>
       </c>
       <c r="C25" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D25" s="170" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E25" s="170"/>
       <c r="F25" s="54"/>
@@ -29343,20 +29346,18 @@
     </row>
     <row r="26" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A26" s="174">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="168" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C26" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D26" s="170" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" s="170" t="s">
-        <v>123</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="E26" s="170"/>
       <c r="F26" s="54"/>
       <c r="G26" s="54"/>
       <c r="H26" s="54"/>
@@ -29381,18 +29382,20 @@
     </row>
     <row r="27" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A27" s="174">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" s="168" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C27" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D27" s="170" t="s">
-        <v>100</v>
-      </c>
-      <c r="E27" s="170"/>
+        <v>103</v>
+      </c>
+      <c r="E27" s="170" t="s">
+        <v>123</v>
+      </c>
       <c r="F27" s="54"/>
       <c r="G27" s="54"/>
       <c r="H27" s="54"/>
@@ -29417,16 +29420,16 @@
     </row>
     <row r="28" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A28" s="174">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="168" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D28" s="170" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E28" s="170"/>
       <c r="F28" s="54"/>
@@ -29453,16 +29456,16 @@
     </row>
     <row r="29" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A29" s="174">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" s="168" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D29" s="170" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E29" s="170"/>
       <c r="F29" s="54"/>
@@ -29489,16 +29492,16 @@
     </row>
     <row r="30" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A30" s="174">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30" s="168" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D30" s="170" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E30" s="170"/>
       <c r="F30" s="54"/>
@@ -29525,16 +29528,16 @@
     </row>
     <row r="31" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A31" s="174">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B31" s="168" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D31" s="170" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E31" s="170"/>
       <c r="F31" s="54"/>
@@ -29561,13 +29564,17 @@
     </row>
     <row r="32" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A32" s="174">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B32" s="168" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="170"/>
-      <c r="D32" s="170"/>
+        <v>69</v>
+      </c>
+      <c r="C32" s="170" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="170" t="s">
+        <v>100</v>
+      </c>
       <c r="E32" s="170"/>
       <c r="F32" s="54"/>
       <c r="G32" s="54"/>
@@ -29593,10 +29600,10 @@
     </row>
     <row r="33" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A33" s="174">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B33" s="168" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" s="170"/>
       <c r="D33" s="170"/>
@@ -29625,10 +29632,10 @@
     </row>
     <row r="34" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A34" s="174">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34" s="168" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C34" s="170"/>
       <c r="D34" s="170"/>
@@ -29657,10 +29664,10 @@
     </row>
     <row r="35" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A35" s="174">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B35" s="168" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C35" s="170"/>
       <c r="D35" s="170"/>
@@ -29689,17 +29696,13 @@
     </row>
     <row r="36" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A36" s="174">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36" s="168" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="170" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36" s="170" t="s">
-        <v>101</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C36" s="170"/>
+      <c r="D36" s="170"/>
       <c r="E36" s="170"/>
       <c r="F36" s="54"/>
       <c r="G36" s="54"/>
@@ -29725,10 +29728,10 @@
     </row>
     <row r="37" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A37" s="174">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B37" s="168" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37" s="170" t="s">
         <v>98</v>
@@ -29761,16 +29764,18 @@
     </row>
     <row r="38" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A38" s="174">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B38" s="168" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="170"/>
-      <c r="D38" s="170"/>
-      <c r="E38" s="170" t="s">
-        <v>172</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C38" s="170" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="170" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="170"/>
       <c r="F38" s="54"/>
       <c r="G38" s="54"/>
       <c r="H38" s="54"/>
@@ -29793,16 +29798,18 @@
       <c r="Y38" s="54"/>
       <c r="Z38" s="54"/>
     </row>
-    <row r="39" spans="1:26" ht="30" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A39" s="174">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B39" s="168" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="170"/>
       <c r="D39" s="170"/>
-      <c r="E39" s="170"/>
+      <c r="E39" s="170" t="s">
+        <v>171</v>
+      </c>
       <c r="F39" s="54"/>
       <c r="G39" s="54"/>
       <c r="H39" s="54"/>
@@ -29827,16 +29834,14 @@
     </row>
     <row r="40" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A40" s="174">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40" s="168" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C40" s="170"/>
       <c r="D40" s="170"/>
-      <c r="E40" s="170" t="s">
-        <v>173</v>
-      </c>
+      <c r="E40" s="170"/>
       <c r="F40" s="54"/>
       <c r="G40" s="54"/>
       <c r="H40" s="54"/>
@@ -29861,15 +29866,15 @@
     </row>
     <row r="41" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A41" s="174">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B41" s="168" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C41" s="170"/>
       <c r="D41" s="170"/>
       <c r="E41" s="170" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F41" s="54"/>
       <c r="G41" s="54"/>
@@ -29895,14 +29900,16 @@
     </row>
     <row r="42" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A42" s="174">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B42" s="168" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C42" s="170"/>
       <c r="D42" s="170"/>
-      <c r="E42" s="170"/>
+      <c r="E42" s="170" t="s">
+        <v>173</v>
+      </c>
       <c r="F42" s="54"/>
       <c r="G42" s="54"/>
       <c r="H42" s="54"/>
@@ -29927,10 +29934,10 @@
     </row>
     <row r="43" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A43" s="174">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B43" s="168" t="s">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="C43" s="170"/>
       <c r="D43" s="170"/>
@@ -29959,10 +29966,10 @@
     </row>
     <row r="44" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A44" s="174">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B44" s="168" t="s">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="C44" s="170"/>
       <c r="D44" s="170"/>
@@ -29991,10 +29998,10 @@
     </row>
     <row r="45" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A45" s="174">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B45" s="168" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" s="170"/>
       <c r="D45" s="170"/>
@@ -30022,11 +30029,15 @@
       <c r="Z45" s="54"/>
     </row>
     <row r="46" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A46" s="175"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
+      <c r="A46" s="174">
+        <v>34</v>
+      </c>
+      <c r="B46" s="168" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="170"/>
+      <c r="D46" s="170"/>
+      <c r="E46" s="170"/>
       <c r="F46" s="54"/>
       <c r="G46" s="54"/>
       <c r="H46" s="54"/>
@@ -57041,6 +57052,34 @@
       <c r="Y1010" s="54"/>
       <c r="Z1010" s="54"/>
     </row>
+    <row r="1011" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A1011" s="175"/>
+      <c r="B1011" s="54"/>
+      <c r="C1011" s="54"/>
+      <c r="D1011" s="54"/>
+      <c r="E1011" s="54"/>
+      <c r="F1011" s="54"/>
+      <c r="G1011" s="54"/>
+      <c r="H1011" s="54"/>
+      <c r="I1011" s="54"/>
+      <c r="J1011" s="54"/>
+      <c r="K1011" s="54"/>
+      <c r="L1011" s="54"/>
+      <c r="M1011" s="54"/>
+      <c r="N1011" s="54"/>
+      <c r="O1011" s="54"/>
+      <c r="P1011" s="54"/>
+      <c r="Q1011" s="54"/>
+      <c r="R1011" s="54"/>
+      <c r="S1011" s="54"/>
+      <c r="T1011" s="54"/>
+      <c r="U1011" s="54"/>
+      <c r="V1011" s="54"/>
+      <c r="W1011" s="54"/>
+      <c r="X1011" s="54"/>
+      <c r="Y1011" s="54"/>
+      <c r="Z1011" s="54"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Database Design & Questions.xlsx
+++ b/Database Design & Questions.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="198">
   <si>
     <t>No.</t>
   </si>
@@ -577,9 +577,6 @@
     <t>1a</t>
   </si>
   <si>
-    <t>Hiển thị tất cả các mặt hàng có tồn kho &lt;= 5, và chi tiết danh mục, nhà cung cấp</t>
-  </si>
-  <si>
     <t>2a</t>
   </si>
   <si>
@@ -623,6 +620,12 @@
   </si>
   <si>
     <t>Hiển thị tất cả các mặt hàng có giảm giá &lt;= , &gt;=, &lt;, &gt;, = X% và chi tiết danh mục, nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Hiển thị tất cả các mặt hàng có tồn kho &lt;= X, và chi tiết danh mục, nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Hiển thị tất cả các mặt hàng có tồn kho &lt;= , &gt;=, &lt;, &gt;, =  X, và chi tiết danh mục, nhà cung cấp</t>
   </si>
 </sst>
 </file>
@@ -1964,7 +1967,7 @@
     <row r="7" spans="1:26" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="79"/>
       <c r="B7" s="80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C7" s="81" t="s">
         <v>120</v>
@@ -2602,7 +2605,7 @@
     <row r="25" spans="1:26" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="79"/>
       <c r="B25" s="80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C25" s="81" t="s">
         <v>120</v>
@@ -3000,7 +3003,7 @@
     <row r="36" spans="1:26" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="79"/>
       <c r="B36" s="80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C36" s="81" t="s">
         <v>120</v>
@@ -3500,7 +3503,7 @@
     <row r="50" spans="1:26" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="79"/>
       <c r="B50" s="80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C50" s="81" t="s">
         <v>120</v>
@@ -4076,7 +4079,7 @@
         <v>9</v>
       </c>
       <c r="B66" s="80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C66" s="81" t="s">
         <v>120</v>
@@ -4628,10 +4631,10 @@
     <row r="81" spans="1:40" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="79"/>
       <c r="B81" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="C81" s="81" t="s">
         <v>190</v>
-      </c>
-      <c r="C81" s="81" t="s">
-        <v>191</v>
       </c>
       <c r="D81" s="82"/>
       <c r="E81" s="81"/>
@@ -4660,7 +4663,7 @@
     <row r="82" spans="1:40" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="79"/>
       <c r="B82" s="80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C82" s="81" t="s">
         <v>120</v>
@@ -4696,10 +4699,10 @@
         <v>9</v>
       </c>
       <c r="B83" s="145" t="s">
+        <v>192</v>
+      </c>
+      <c r="C83" s="146" t="s">
         <v>193</v>
-      </c>
-      <c r="C83" s="146" t="s">
-        <v>194</v>
       </c>
       <c r="D83" s="150">
         <v>50</v>
@@ -5170,7 +5173,7 @@
     <row r="95" spans="1:40" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="79"/>
       <c r="B95" s="80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C95" s="81" t="s">
         <v>120</v>
@@ -5265,7 +5268,7 @@
     </row>
     <row r="98" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="195" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B98" s="196"/>
       <c r="C98" s="196"/>
@@ -5380,10 +5383,10 @@
     <row r="101" spans="1:26" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="79"/>
       <c r="B101" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="C101" s="81" t="s">
         <v>190</v>
-      </c>
-      <c r="C101" s="81" t="s">
-        <v>191</v>
       </c>
       <c r="D101" s="82"/>
       <c r="E101" s="81"/>
@@ -5479,7 +5482,7 @@
     </row>
     <row r="104" spans="1:26" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="197" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B104" s="196"/>
       <c r="C104" s="196"/>
@@ -28455,9 +28458,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1011"/>
+  <dimension ref="A1:Z1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -28773,7 +28776,7 @@
         <v>180</v>
       </c>
       <c r="B10" s="164" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C10" s="170" t="s">
         <v>98</v>
@@ -28809,7 +28812,7 @@
         <v>170</v>
       </c>
       <c r="B11" s="164" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C11" s="170" t="s">
         <v>98</v>
@@ -28841,11 +28844,11 @@
       <c r="Z11" s="54"/>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="85" t="s">
-        <v>182</v>
+      <c r="A12" s="85">
+        <v>2</v>
       </c>
       <c r="B12" s="164" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C12" s="170" t="s">
         <v>98</v>
@@ -28878,10 +28881,10 @@
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="85" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B13" s="164" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="C13" s="170" t="s">
         <v>98</v>
@@ -28913,11 +28916,11 @@
       <c r="Z13" s="54"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="85">
-        <v>3</v>
+      <c r="A14" s="85" t="s">
+        <v>182</v>
       </c>
       <c r="B14" s="164" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C14" s="170" t="s">
         <v>98</v>
@@ -28949,17 +28952,17 @@
       <c r="Z14" s="54"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="173">
-        <v>4</v>
-      </c>
-      <c r="B15" s="165" t="s">
-        <v>54</v>
+      <c r="A15" s="85">
+        <v>3</v>
+      </c>
+      <c r="B15" s="164" t="s">
+        <v>184</v>
       </c>
       <c r="C15" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D15" s="170" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E15" s="170"/>
       <c r="F15" s="54"/>
@@ -28986,10 +28989,10 @@
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="173">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="165" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="170" t="s">
         <v>98</v>
@@ -29022,10 +29025,10 @@
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="173">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="165" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="170" t="s">
         <v>98</v>
@@ -29057,17 +29060,17 @@
       <c r="Z17" s="54"/>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="75">
-        <v>7</v>
-      </c>
-      <c r="B18" s="166" t="s">
-        <v>57</v>
+      <c r="A18" s="173">
+        <v>6</v>
+      </c>
+      <c r="B18" s="165" t="s">
+        <v>56</v>
       </c>
       <c r="C18" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D18" s="170" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E18" s="170"/>
       <c r="F18" s="54"/>
@@ -29092,12 +29095,12 @@
       <c r="Y18" s="54"/>
       <c r="Z18" s="54"/>
     </row>
-    <row r="19" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A19" s="75" t="s">
-        <v>186</v>
+    <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="75">
+        <v>7</v>
       </c>
       <c r="B19" s="166" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="170" t="s">
         <v>98</v>
@@ -29130,10 +29133,10 @@
     </row>
     <row r="20" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A20" s="75" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B20" s="166" t="s">
-        <v>163</v>
+        <v>58</v>
       </c>
       <c r="C20" s="170" t="s">
         <v>98</v>
@@ -29165,11 +29168,11 @@
       <c r="Z20" s="54"/>
     </row>
     <row r="21" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A21" s="75">
-        <v>9</v>
-      </c>
-      <c r="B21" s="167" t="s">
-        <v>59</v>
+      <c r="A21" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="B21" s="166" t="s">
+        <v>163</v>
       </c>
       <c r="C21" s="170" t="s">
         <v>98</v>
@@ -29202,10 +29205,10 @@
     </row>
     <row r="22" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A22" s="75">
-        <v>10</v>
-      </c>
-      <c r="B22" s="166" t="s">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="B22" s="167" t="s">
+        <v>59</v>
       </c>
       <c r="C22" s="170" t="s">
         <v>98</v>
@@ -29238,10 +29241,10 @@
     </row>
     <row r="23" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A23" s="75">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" s="166" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="170" t="s">
         <v>98</v>
@@ -29274,10 +29277,10 @@
     </row>
     <row r="24" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A24" s="75">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="166" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="170" t="s">
         <v>98</v>
@@ -29310,10 +29313,10 @@
     </row>
     <row r="25" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A25" s="75">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="166" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="170" t="s">
         <v>98</v>
@@ -29345,17 +29348,17 @@
       <c r="Z25" s="54"/>
     </row>
     <row r="26" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A26" s="174">
-        <v>14</v>
-      </c>
-      <c r="B26" s="168" t="s">
-        <v>64</v>
+      <c r="A26" s="75">
+        <v>13</v>
+      </c>
+      <c r="B26" s="166" t="s">
+        <v>63</v>
       </c>
       <c r="C26" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D26" s="170" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E26" s="170"/>
       <c r="F26" s="54"/>
@@ -29382,20 +29385,18 @@
     </row>
     <row r="27" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A27" s="174">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" s="168" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C27" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D27" s="170" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="170" t="s">
-        <v>123</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="E27" s="170"/>
       <c r="F27" s="54"/>
       <c r="G27" s="54"/>
       <c r="H27" s="54"/>
@@ -29420,18 +29421,20 @@
     </row>
     <row r="28" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A28" s="174">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" s="168" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C28" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D28" s="170" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="170"/>
+        <v>103</v>
+      </c>
+      <c r="E28" s="170" t="s">
+        <v>123</v>
+      </c>
       <c r="F28" s="54"/>
       <c r="G28" s="54"/>
       <c r="H28" s="54"/>
@@ -29456,16 +29459,16 @@
     </row>
     <row r="29" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A29" s="174">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29" s="168" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D29" s="170" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E29" s="170"/>
       <c r="F29" s="54"/>
@@ -29492,16 +29495,16 @@
     </row>
     <row r="30" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A30" s="174">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30" s="168" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D30" s="170" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E30" s="170"/>
       <c r="F30" s="54"/>
@@ -29528,16 +29531,16 @@
     </row>
     <row r="31" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A31" s="174">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31" s="168" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D31" s="170" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E31" s="170"/>
       <c r="F31" s="54"/>
@@ -29564,16 +29567,16 @@
     </row>
     <row r="32" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A32" s="174">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32" s="168" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D32" s="170" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E32" s="170"/>
       <c r="F32" s="54"/>
@@ -29600,13 +29603,17 @@
     </row>
     <row r="33" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A33" s="174">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B33" s="168" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="170"/>
-      <c r="D33" s="170"/>
+        <v>69</v>
+      </c>
+      <c r="C33" s="170" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="170" t="s">
+        <v>100</v>
+      </c>
       <c r="E33" s="170"/>
       <c r="F33" s="54"/>
       <c r="G33" s="54"/>
@@ -29632,10 +29639,10 @@
     </row>
     <row r="34" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A34" s="174">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34" s="168" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" s="170"/>
       <c r="D34" s="170"/>
@@ -29664,10 +29671,10 @@
     </row>
     <row r="35" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A35" s="174">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35" s="168" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C35" s="170"/>
       <c r="D35" s="170"/>
@@ -29696,10 +29703,10 @@
     </row>
     <row r="36" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A36" s="174">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B36" s="168" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C36" s="170"/>
       <c r="D36" s="170"/>
@@ -29728,17 +29735,13 @@
     </row>
     <row r="37" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A37" s="174">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B37" s="168" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="170" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" s="170" t="s">
-        <v>101</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C37" s="170"/>
+      <c r="D37" s="170"/>
       <c r="E37" s="170"/>
       <c r="F37" s="54"/>
       <c r="G37" s="54"/>
@@ -29764,10 +29767,10 @@
     </row>
     <row r="38" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A38" s="174">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B38" s="168" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38" s="170" t="s">
         <v>98</v>
@@ -29800,16 +29803,18 @@
     </row>
     <row r="39" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A39" s="174">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B39" s="168" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="170"/>
-      <c r="D39" s="170"/>
-      <c r="E39" s="170" t="s">
-        <v>171</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C39" s="170" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="170" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="170"/>
       <c r="F39" s="54"/>
       <c r="G39" s="54"/>
       <c r="H39" s="54"/>
@@ -29834,14 +29839,16 @@
     </row>
     <row r="40" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A40" s="174">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B40" s="168" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="170"/>
       <c r="D40" s="170"/>
-      <c r="E40" s="170"/>
+      <c r="E40" s="170" t="s">
+        <v>171</v>
+      </c>
       <c r="F40" s="54"/>
       <c r="G40" s="54"/>
       <c r="H40" s="54"/>
@@ -29866,16 +29873,14 @@
     </row>
     <row r="41" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A41" s="174">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B41" s="168" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41" s="170"/>
       <c r="D41" s="170"/>
-      <c r="E41" s="170" t="s">
-        <v>172</v>
-      </c>
+      <c r="E41" s="170"/>
       <c r="F41" s="54"/>
       <c r="G41" s="54"/>
       <c r="H41" s="54"/>
@@ -29900,15 +29905,15 @@
     </row>
     <row r="42" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A42" s="174">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B42" s="168" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C42" s="170"/>
       <c r="D42" s="170"/>
       <c r="E42" s="170" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F42" s="54"/>
       <c r="G42" s="54"/>
@@ -29934,14 +29939,16 @@
     </row>
     <row r="43" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A43" s="174">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B43" s="168" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C43" s="170"/>
       <c r="D43" s="170"/>
-      <c r="E43" s="170"/>
+      <c r="E43" s="170" t="s">
+        <v>173</v>
+      </c>
       <c r="F43" s="54"/>
       <c r="G43" s="54"/>
       <c r="H43" s="54"/>
@@ -29966,10 +29973,10 @@
     </row>
     <row r="44" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A44" s="174">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B44" s="168" t="s">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="C44" s="170"/>
       <c r="D44" s="170"/>
@@ -29998,10 +30005,10 @@
     </row>
     <row r="45" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A45" s="174">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B45" s="168" t="s">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="C45" s="170"/>
       <c r="D45" s="170"/>
@@ -30030,10 +30037,10 @@
     </row>
     <row r="46" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A46" s="174">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B46" s="168" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46" s="170"/>
       <c r="D46" s="170"/>
@@ -30061,11 +30068,15 @@
       <c r="Z46" s="54"/>
     </row>
     <row r="47" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A47" s="175"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
+      <c r="A47" s="174">
+        <v>34</v>
+      </c>
+      <c r="B47" s="168" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="170"/>
+      <c r="D47" s="170"/>
+      <c r="E47" s="170"/>
       <c r="F47" s="54"/>
       <c r="G47" s="54"/>
       <c r="H47" s="54"/>
@@ -57080,6 +57091,34 @@
       <c r="Y1011" s="54"/>
       <c r="Z1011" s="54"/>
     </row>
+    <row r="1012" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A1012" s="175"/>
+      <c r="B1012" s="54"/>
+      <c r="C1012" s="54"/>
+      <c r="D1012" s="54"/>
+      <c r="E1012" s="54"/>
+      <c r="F1012" s="54"/>
+      <c r="G1012" s="54"/>
+      <c r="H1012" s="54"/>
+      <c r="I1012" s="54"/>
+      <c r="J1012" s="54"/>
+      <c r="K1012" s="54"/>
+      <c r="L1012" s="54"/>
+      <c r="M1012" s="54"/>
+      <c r="N1012" s="54"/>
+      <c r="O1012" s="54"/>
+      <c r="P1012" s="54"/>
+      <c r="Q1012" s="54"/>
+      <c r="R1012" s="54"/>
+      <c r="S1012" s="54"/>
+      <c r="T1012" s="54"/>
+      <c r="U1012" s="54"/>
+      <c r="V1012" s="54"/>
+      <c r="W1012" s="54"/>
+      <c r="X1012" s="54"/>
+      <c r="Y1012" s="54"/>
+      <c r="Z1012" s="54"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Database Design & Questions.xlsx
+++ b/Database Design & Questions.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="199">
   <si>
     <t>No.</t>
   </si>
@@ -626,6 +626,9 @@
   </si>
   <si>
     <t>Hiển thị tất cả các mặt hàng có tồn kho &lt;= , &gt;=, &lt;, &gt;, =  X, và chi tiết danh mục, nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Hiển thị tất cả các khách hàng có năm sinh X, và trả về 1 trường năm sinh trong dữ liệu</t>
   </si>
 </sst>
 </file>
@@ -28458,10 +28461,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1012"/>
+  <dimension ref="A1:Z1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -29061,10 +29064,10 @@
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="173">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="165" t="s">
-        <v>56</v>
+        <v>198</v>
       </c>
       <c r="C18" s="170" t="s">
         <v>98</v>
@@ -29096,17 +29099,17 @@
       <c r="Z18" s="54"/>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="75">
-        <v>7</v>
-      </c>
-      <c r="B19" s="166" t="s">
-        <v>57</v>
+      <c r="A19" s="173">
+        <v>6</v>
+      </c>
+      <c r="B19" s="165" t="s">
+        <v>56</v>
       </c>
       <c r="C19" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D19" s="170" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E19" s="170"/>
       <c r="F19" s="54"/>
@@ -29131,12 +29134,12 @@
       <c r="Y19" s="54"/>
       <c r="Z19" s="54"/>
     </row>
-    <row r="20" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A20" s="75" t="s">
-        <v>185</v>
+    <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="75">
+        <v>7</v>
       </c>
       <c r="B20" s="166" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="170" t="s">
         <v>98</v>
@@ -29169,10 +29172,10 @@
     </row>
     <row r="21" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A21" s="75" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B21" s="166" t="s">
-        <v>163</v>
+        <v>58</v>
       </c>
       <c r="C21" s="170" t="s">
         <v>98</v>
@@ -29204,11 +29207,11 @@
       <c r="Z21" s="54"/>
     </row>
     <row r="22" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A22" s="75">
-        <v>9</v>
-      </c>
-      <c r="B22" s="167" t="s">
-        <v>59</v>
+      <c r="A22" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="B22" s="166" t="s">
+        <v>163</v>
       </c>
       <c r="C22" s="170" t="s">
         <v>98</v>
@@ -29241,10 +29244,10 @@
     </row>
     <row r="23" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A23" s="75">
-        <v>10</v>
-      </c>
-      <c r="B23" s="166" t="s">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="B23" s="167" t="s">
+        <v>59</v>
       </c>
       <c r="C23" s="170" t="s">
         <v>98</v>
@@ -29277,10 +29280,10 @@
     </row>
     <row r="24" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A24" s="75">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" s="166" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="170" t="s">
         <v>98</v>
@@ -29313,10 +29316,10 @@
     </row>
     <row r="25" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A25" s="75">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="166" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" s="170" t="s">
         <v>98</v>
@@ -29349,10 +29352,10 @@
     </row>
     <row r="26" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A26" s="75">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" s="166" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" s="170" t="s">
         <v>98</v>
@@ -29384,17 +29387,17 @@
       <c r="Z26" s="54"/>
     </row>
     <row r="27" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A27" s="174">
-        <v>14</v>
-      </c>
-      <c r="B27" s="168" t="s">
-        <v>64</v>
+      <c r="A27" s="75">
+        <v>13</v>
+      </c>
+      <c r="B27" s="166" t="s">
+        <v>63</v>
       </c>
       <c r="C27" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D27" s="170" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E27" s="170"/>
       <c r="F27" s="54"/>
@@ -29421,20 +29424,18 @@
     </row>
     <row r="28" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A28" s="174">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" s="168" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C28" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D28" s="170" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="170" t="s">
-        <v>123</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="E28" s="170"/>
       <c r="F28" s="54"/>
       <c r="G28" s="54"/>
       <c r="H28" s="54"/>
@@ -29459,18 +29460,20 @@
     </row>
     <row r="29" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A29" s="174">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" s="168" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C29" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D29" s="170" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="170"/>
+        <v>103</v>
+      </c>
+      <c r="E29" s="170" t="s">
+        <v>123</v>
+      </c>
       <c r="F29" s="54"/>
       <c r="G29" s="54"/>
       <c r="H29" s="54"/>
@@ -29495,16 +29498,16 @@
     </row>
     <row r="30" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A30" s="174">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" s="168" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D30" s="170" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E30" s="170"/>
       <c r="F30" s="54"/>
@@ -29531,16 +29534,16 @@
     </row>
     <row r="31" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A31" s="174">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" s="168" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D31" s="170" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E31" s="170"/>
       <c r="F31" s="54"/>
@@ -29567,16 +29570,16 @@
     </row>
     <row r="32" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A32" s="174">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32" s="168" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D32" s="170" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E32" s="170"/>
       <c r="F32" s="54"/>
@@ -29603,16 +29606,16 @@
     </row>
     <row r="33" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A33" s="174">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B33" s="168" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D33" s="170" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E33" s="170"/>
       <c r="F33" s="54"/>
@@ -29639,13 +29642,17 @@
     </row>
     <row r="34" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A34" s="174">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B34" s="168" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="170"/>
-      <c r="D34" s="170"/>
+        <v>69</v>
+      </c>
+      <c r="C34" s="170" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="170" t="s">
+        <v>100</v>
+      </c>
       <c r="E34" s="170"/>
       <c r="F34" s="54"/>
       <c r="G34" s="54"/>
@@ -29671,10 +29678,10 @@
     </row>
     <row r="35" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A35" s="174">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35" s="168" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35" s="170"/>
       <c r="D35" s="170"/>
@@ -29703,10 +29710,10 @@
     </row>
     <row r="36" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A36" s="174">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36" s="168" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="170"/>
       <c r="D36" s="170"/>
@@ -29735,10 +29742,10 @@
     </row>
     <row r="37" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A37" s="174">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37" s="168" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" s="170"/>
       <c r="D37" s="170"/>
@@ -29767,17 +29774,13 @@
     </row>
     <row r="38" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A38" s="174">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38" s="168" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="170" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="170" t="s">
-        <v>101</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C38" s="170"/>
+      <c r="D38" s="170"/>
       <c r="E38" s="170"/>
       <c r="F38" s="54"/>
       <c r="G38" s="54"/>
@@ -29803,10 +29806,10 @@
     </row>
     <row r="39" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A39" s="174">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39" s="168" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="170" t="s">
         <v>98</v>
@@ -29839,16 +29842,18 @@
     </row>
     <row r="40" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A40" s="174">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B40" s="168" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="170"/>
-      <c r="D40" s="170"/>
-      <c r="E40" s="170" t="s">
-        <v>171</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C40" s="170" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="170" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="170"/>
       <c r="F40" s="54"/>
       <c r="G40" s="54"/>
       <c r="H40" s="54"/>
@@ -29873,14 +29878,16 @@
     </row>
     <row r="41" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A41" s="174">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41" s="168" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" s="170"/>
       <c r="D41" s="170"/>
-      <c r="E41" s="170"/>
+      <c r="E41" s="170" t="s">
+        <v>171</v>
+      </c>
       <c r="F41" s="54"/>
       <c r="G41" s="54"/>
       <c r="H41" s="54"/>
@@ -29905,16 +29912,14 @@
     </row>
     <row r="42" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A42" s="174">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B42" s="168" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42" s="170"/>
       <c r="D42" s="170"/>
-      <c r="E42" s="170" t="s">
-        <v>172</v>
-      </c>
+      <c r="E42" s="170"/>
       <c r="F42" s="54"/>
       <c r="G42" s="54"/>
       <c r="H42" s="54"/>
@@ -29939,15 +29944,15 @@
     </row>
     <row r="43" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A43" s="174">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B43" s="168" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C43" s="170"/>
       <c r="D43" s="170"/>
       <c r="E43" s="170" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F43" s="54"/>
       <c r="G43" s="54"/>
@@ -29973,14 +29978,16 @@
     </row>
     <row r="44" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A44" s="174">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B44" s="168" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C44" s="170"/>
       <c r="D44" s="170"/>
-      <c r="E44" s="170"/>
+      <c r="E44" s="170" t="s">
+        <v>173</v>
+      </c>
       <c r="F44" s="54"/>
       <c r="G44" s="54"/>
       <c r="H44" s="54"/>
@@ -30005,10 +30012,10 @@
     </row>
     <row r="45" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A45" s="174">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B45" s="168" t="s">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="C45" s="170"/>
       <c r="D45" s="170"/>
@@ -30037,10 +30044,10 @@
     </row>
     <row r="46" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A46" s="174">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B46" s="168" t="s">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="C46" s="170"/>
       <c r="D46" s="170"/>
@@ -30069,10 +30076,10 @@
     </row>
     <row r="47" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A47" s="174">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B47" s="168" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="170"/>
       <c r="D47" s="170"/>
@@ -30100,11 +30107,15 @@
       <c r="Z47" s="54"/>
     </row>
     <row r="48" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A48" s="175"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
+      <c r="A48" s="174">
+        <v>34</v>
+      </c>
+      <c r="B48" s="168" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="170"/>
+      <c r="D48" s="170"/>
+      <c r="E48" s="170"/>
       <c r="F48" s="54"/>
       <c r="G48" s="54"/>
       <c r="H48" s="54"/>
@@ -57119,6 +57130,34 @@
       <c r="Y1012" s="54"/>
       <c r="Z1012" s="54"/>
     </row>
+    <row r="1013" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A1013" s="175"/>
+      <c r="B1013" s="54"/>
+      <c r="C1013" s="54"/>
+      <c r="D1013" s="54"/>
+      <c r="E1013" s="54"/>
+      <c r="F1013" s="54"/>
+      <c r="G1013" s="54"/>
+      <c r="H1013" s="54"/>
+      <c r="I1013" s="54"/>
+      <c r="J1013" s="54"/>
+      <c r="K1013" s="54"/>
+      <c r="L1013" s="54"/>
+      <c r="M1013" s="54"/>
+      <c r="N1013" s="54"/>
+      <c r="O1013" s="54"/>
+      <c r="P1013" s="54"/>
+      <c r="Q1013" s="54"/>
+      <c r="R1013" s="54"/>
+      <c r="S1013" s="54"/>
+      <c r="T1013" s="54"/>
+      <c r="U1013" s="54"/>
+      <c r="V1013" s="54"/>
+      <c r="W1013" s="54"/>
+      <c r="X1013" s="54"/>
+      <c r="Y1013" s="54"/>
+      <c r="Z1013" s="54"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Database Design & Questions.xlsx
+++ b/Database Design & Questions.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="202">
   <si>
     <t>No.</t>
   </si>
@@ -629,6 +629,15 @@
   </si>
   <si>
     <t>Hiển thị tất cả các khách hàng có năm sinh X, và trả về 1 trường năm sinh trong dữ liệu</t>
+  </si>
+  <si>
+    <t>5a</t>
+  </si>
+  <si>
+    <t>8c</t>
+  </si>
+  <si>
+    <t>Hiển thị tất cả các đơn hàng có trạng thái là &lt;status&gt; có ngày tạo ngoài khoảng &lt;fromDate&gt; và &lt;toDate&gt;</t>
   </si>
 </sst>
 </file>
@@ -28461,10 +28470,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1013"/>
+  <dimension ref="A1:Z1014"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -29063,8 +29072,8 @@
       <c r="Z17" s="54"/>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="173">
-        <v>5</v>
+      <c r="A18" s="173" t="s">
+        <v>199</v>
       </c>
       <c r="B18" s="165" t="s">
         <v>198</v>
@@ -29243,11 +29252,11 @@
       <c r="Z22" s="54"/>
     </row>
     <row r="23" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A23" s="75">
-        <v>9</v>
-      </c>
-      <c r="B23" s="167" t="s">
-        <v>59</v>
+      <c r="A23" s="75" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" s="166" t="s">
+        <v>201</v>
       </c>
       <c r="C23" s="170" t="s">
         <v>98</v>
@@ -29280,10 +29289,10 @@
     </row>
     <row r="24" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A24" s="75">
-        <v>10</v>
-      </c>
-      <c r="B24" s="166" t="s">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="B24" s="167" t="s">
+        <v>59</v>
       </c>
       <c r="C24" s="170" t="s">
         <v>98</v>
@@ -29316,10 +29325,10 @@
     </row>
     <row r="25" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A25" s="75">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" s="166" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="170" t="s">
         <v>98</v>
@@ -29352,10 +29361,10 @@
     </row>
     <row r="26" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A26" s="75">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26" s="166" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="170" t="s">
         <v>98</v>
@@ -29388,10 +29397,10 @@
     </row>
     <row r="27" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A27" s="75">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" s="166" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="170" t="s">
         <v>98</v>
@@ -29423,17 +29432,17 @@
       <c r="Z27" s="54"/>
     </row>
     <row r="28" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A28" s="174">
-        <v>14</v>
-      </c>
-      <c r="B28" s="168" t="s">
-        <v>64</v>
+      <c r="A28" s="75">
+        <v>13</v>
+      </c>
+      <c r="B28" s="166" t="s">
+        <v>63</v>
       </c>
       <c r="C28" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D28" s="170" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E28" s="170"/>
       <c r="F28" s="54"/>
@@ -29460,20 +29469,18 @@
     </row>
     <row r="29" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A29" s="174">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" s="168" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C29" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D29" s="170" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" s="170" t="s">
-        <v>123</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="E29" s="170"/>
       <c r="F29" s="54"/>
       <c r="G29" s="54"/>
       <c r="H29" s="54"/>
@@ -29498,18 +29505,20 @@
     </row>
     <row r="30" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A30" s="174">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" s="168" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C30" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D30" s="170" t="s">
-        <v>100</v>
-      </c>
-      <c r="E30" s="170"/>
+        <v>103</v>
+      </c>
+      <c r="E30" s="170" t="s">
+        <v>123</v>
+      </c>
       <c r="F30" s="54"/>
       <c r="G30" s="54"/>
       <c r="H30" s="54"/>
@@ -29534,16 +29543,16 @@
     </row>
     <row r="31" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A31" s="174">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31" s="168" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D31" s="170" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E31" s="170"/>
       <c r="F31" s="54"/>
@@ -29570,16 +29579,16 @@
     </row>
     <row r="32" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A32" s="174">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" s="168" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D32" s="170" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E32" s="170"/>
       <c r="F32" s="54"/>
@@ -29606,16 +29615,16 @@
     </row>
     <row r="33" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A33" s="174">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33" s="168" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D33" s="170" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E33" s="170"/>
       <c r="F33" s="54"/>
@@ -29642,16 +29651,16 @@
     </row>
     <row r="34" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A34" s="174">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34" s="168" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" s="170" t="s">
         <v>98</v>
       </c>
       <c r="D34" s="170" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E34" s="170"/>
       <c r="F34" s="54"/>
@@ -29678,13 +29687,17 @@
     </row>
     <row r="35" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A35" s="174">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35" s="168" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="170"/>
-      <c r="D35" s="170"/>
+        <v>69</v>
+      </c>
+      <c r="C35" s="170" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="170" t="s">
+        <v>100</v>
+      </c>
       <c r="E35" s="170"/>
       <c r="F35" s="54"/>
       <c r="G35" s="54"/>
@@ -29710,10 +29723,10 @@
     </row>
     <row r="36" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A36" s="174">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" s="168" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C36" s="170"/>
       <c r="D36" s="170"/>
@@ -29742,10 +29755,10 @@
     </row>
     <row r="37" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A37" s="174">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" s="168" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C37" s="170"/>
       <c r="D37" s="170"/>
@@ -29774,10 +29787,10 @@
     </row>
     <row r="38" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A38" s="174">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" s="168" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C38" s="170"/>
       <c r="D38" s="170"/>
@@ -29806,17 +29819,13 @@
     </row>
     <row r="39" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A39" s="174">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="168" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="170" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="170" t="s">
-        <v>101</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C39" s="170"/>
+      <c r="D39" s="170"/>
       <c r="E39" s="170"/>
       <c r="F39" s="54"/>
       <c r="G39" s="54"/>
@@ -29842,10 +29851,10 @@
     </row>
     <row r="40" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A40" s="174">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40" s="168" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C40" s="170" t="s">
         <v>98</v>
@@ -29878,16 +29887,18 @@
     </row>
     <row r="41" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A41" s="174">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41" s="168" t="s">
-        <v>76</v>
-      </c>
-      <c r="C41" s="170"/>
-      <c r="D41" s="170"/>
-      <c r="E41" s="170" t="s">
-        <v>171</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C41" s="170" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="170" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" s="170"/>
       <c r="F41" s="54"/>
       <c r="G41" s="54"/>
       <c r="H41" s="54"/>
@@ -29912,14 +29923,16 @@
     </row>
     <row r="42" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A42" s="174">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B42" s="168" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" s="170"/>
       <c r="D42" s="170"/>
-      <c r="E42" s="170"/>
+      <c r="E42" s="170" t="s">
+        <v>171</v>
+      </c>
       <c r="F42" s="54"/>
       <c r="G42" s="54"/>
       <c r="H42" s="54"/>
@@ -29944,16 +29957,14 @@
     </row>
     <row r="43" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A43" s="174">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B43" s="168" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C43" s="170"/>
       <c r="D43" s="170"/>
-      <c r="E43" s="170" t="s">
-        <v>172</v>
-      </c>
+      <c r="E43" s="170"/>
       <c r="F43" s="54"/>
       <c r="G43" s="54"/>
       <c r="H43" s="54"/>
@@ -29978,15 +29989,15 @@
     </row>
     <row r="44" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A44" s="174">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B44" s="168" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C44" s="170"/>
       <c r="D44" s="170"/>
       <c r="E44" s="170" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F44" s="54"/>
       <c r="G44" s="54"/>
@@ -30012,14 +30023,16 @@
     </row>
     <row r="45" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A45" s="174">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B45" s="168" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C45" s="170"/>
       <c r="D45" s="170"/>
-      <c r="E45" s="170"/>
+      <c r="E45" s="170" t="s">
+        <v>173</v>
+      </c>
       <c r="F45" s="54"/>
       <c r="G45" s="54"/>
       <c r="H45" s="54"/>
@@ -30044,10 +30057,10 @@
     </row>
     <row r="46" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A46" s="174">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B46" s="168" t="s">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="C46" s="170"/>
       <c r="D46" s="170"/>
@@ -30076,10 +30089,10 @@
     </row>
     <row r="47" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A47" s="174">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B47" s="168" t="s">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="C47" s="170"/>
       <c r="D47" s="170"/>
@@ -30108,10 +30121,10 @@
     </row>
     <row r="48" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A48" s="174">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B48" s="168" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48" s="170"/>
       <c r="D48" s="170"/>
@@ -30139,11 +30152,15 @@
       <c r="Z48" s="54"/>
     </row>
     <row r="49" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A49" s="175"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
+      <c r="A49" s="174">
+        <v>34</v>
+      </c>
+      <c r="B49" s="168" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="170"/>
+      <c r="D49" s="170"/>
+      <c r="E49" s="170"/>
       <c r="F49" s="54"/>
       <c r="G49" s="54"/>
       <c r="H49" s="54"/>
@@ -57158,9 +57175,37 @@
       <c r="Y1013" s="54"/>
       <c r="Z1013" s="54"/>
     </row>
+    <row r="1014" spans="1:26" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A1014" s="175"/>
+      <c r="B1014" s="54"/>
+      <c r="C1014" s="54"/>
+      <c r="D1014" s="54"/>
+      <c r="E1014" s="54"/>
+      <c r="F1014" s="54"/>
+      <c r="G1014" s="54"/>
+      <c r="H1014" s="54"/>
+      <c r="I1014" s="54"/>
+      <c r="J1014" s="54"/>
+      <c r="K1014" s="54"/>
+      <c r="L1014" s="54"/>
+      <c r="M1014" s="54"/>
+      <c r="N1014" s="54"/>
+      <c r="O1014" s="54"/>
+      <c r="P1014" s="54"/>
+      <c r="Q1014" s="54"/>
+      <c r="R1014" s="54"/>
+      <c r="S1014" s="54"/>
+      <c r="T1014" s="54"/>
+      <c r="U1014" s="54"/>
+      <c r="V1014" s="54"/>
+      <c r="W1014" s="54"/>
+      <c r="X1014" s="54"/>
+      <c r="Y1014" s="54"/>
+      <c r="Z1014" s="54"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
